--- a/Debug/UserData_backup.xlsx
+++ b/Debug/UserData_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FEABEB-E09F-43D5-9BD9-F88FD3A022A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DC8FA9-7658-4E9A-A757-3AEBA18134B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="149">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>For adding passive load, please use PLi and QLi in the "PowerFlow" sheet.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Self branch HAS TO be GC.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +301,6 @@
   </si>
   <si>
     <t>wL = 0.1 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-10: Synchronous machine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -629,10 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19: stationary frame modeling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The self branch can represent the passive load, which is equivalent to the load settings in bus.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,6 +674,14 @@
   </si>
   <si>
     <t>inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For adding passive load, please use PLi and QLi in the "Bus" sheet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-9: Synchronous machine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,22 +1126,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1155,55 +1151,55 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1367,9 +1363,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1391,7 +1389,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1401,7 +1399,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1411,294 +1409,294 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>65</v>
       </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B24" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>83</v>
-      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="11" t="s">
-        <v>115</v>
+      <c r="B27" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="28" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" t="s">
-        <v>54</v>
+      <c r="B31" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B36" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="11" t="s">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="8" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="12" t="s">
-        <v>106</v>
+      <c r="B40" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="14" t="s">
-        <v>101</v>
+      <c r="B41" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
@@ -1708,107 +1706,126 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="8" t="s">
-        <v>92</v>
+      <c r="B44" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="3" t="s">
-        <v>93</v>
+      <c r="B45" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B50" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="I49" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H50" s="18" t="s">
+      <c r="J49" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="I50" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>130</v>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="13" t="s">
-        <v>118</v>
+      <c r="B52" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B53" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B54" s="16" t="s">
-        <v>114</v>
+      <c r="A54" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="B55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0.02</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1832,13 +1849,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" s="2">
-        <v>3.5</v>
+      <c r="C58">
+        <v>0.35</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1846,60 +1863,36 @@
       <c r="E58">
         <v>0.02</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58">
         <v>0.01</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>0.35</v>
+        <v>2.5</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E59">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F59">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60">
-        <v>10</v>
-      </c>
-      <c r="C60">
-        <v>2.5</v>
-      </c>
-      <c r="D60">
-        <v>1.25</v>
-      </c>
-      <c r="E60">
-        <v>0.03</v>
-      </c>
-      <c r="F60">
-        <v>0.01</v>
-      </c>
-      <c r="G60">
+      <c r="G59">
         <v>20</v>
       </c>
-      <c r="H60">
+      <c r="H59">
         <v>20</v>
       </c>
-      <c r="I60">
+      <c r="I59">
         <v>500</v>
       </c>
     </row>
@@ -1925,7 +1918,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1935,32 +1928,32 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1970,15 +1963,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
@@ -1993,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2007,7 +2000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2029,12 +2022,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2044,30 +2037,30 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
@@ -2082,7 +2075,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2185,10 +2178,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E15" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2208,10 +2201,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E16" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2231,10 +2224,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E17" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2254,10 +2247,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E18" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2294,12 +2287,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -2313,7 +2306,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -2321,7 +2314,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2329,7 +2322,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2357,144 +2350,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
